--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_6_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_6_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>7.220962761789636e-16</v>
+        <v>5.621382403165349e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.33121101645883</v>
+        <v>43.49676309937972</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[33.79649845068421, 48.86592358223345]</t>
+          <t>[35.40663208792838, 51.58689411083106]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.666710817219811</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4528686746331188, 1.8805529598065034]</t>
+          <t>[1.2767633807381937, 1.679289766783734]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.7916000548872</v>
+        <v>62.64349526615166</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.935185594808175, 64.64801451496622]</t>
+          <t>[57.44679274818219, 67.84019778412113]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.09575575575621</v>
+        <v>19.6238638638643</v>
       </c>
       <c r="X2" t="n">
-        <v>18.21121121121165</v>
+        <v>18.80192192192234</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.98030030030078</v>
+        <v>20.44580580580626</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.28000000000036</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.103097854504576e-06</v>
+        <v>6.638526839353176e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>3.382503104105876e-06</v>
+        <v>2.128374678146951e-08</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>30.54126514587824</v>
+        <v>36.52033460028461</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[15.23283992887417, 45.84969036288231]</t>
+          <t>[22.54488015608607, 50.495789044483146]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001257548771753658</v>
+        <v>8.004960514451653e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0001257548771753658</v>
+        <v>8.004960514451653e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6666843268879239</v>
+        <v>-2.679316257115619</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.1572633598809245, -0.17610529389492324]</t>
+          <t>[-3.094421592725082, -2.264210921506157]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.008085973018865378</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008085973018865378</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.4526753331759</v>
+        <v>61.69649872702855</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.653252353528444, 67.25209831282336]</t>
+          <t>[54.01057817449286, 69.38241927956423]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.576256256256293</v>
+        <v>9.952792792792883</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6805205205205302</v>
+        <v>8.410810810810885</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.471991991992057</v>
+        <v>11.49477477477488</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_6_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_6_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.66000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.621382403165349e-16</v>
+        <v>8.623091453399274e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.49676309937972</v>
+        <v>37.88476010575841</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.40663208792838, 51.58689411083106]</t>
+          <t>[30.344189967074954, 45.42533024444187]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.478026573760964</v>
+        <v>1.616395018964118</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2767633807381937, 1.679289766783734]</t>
+          <t>[1.3899739268135027, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.64349526615166</v>
+        <v>61.62380873389593</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[57.44679274818219, 67.84019778412113]</t>
+          <t>[56.725841331799806, 66.52177613599207]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.6238638638643</v>
+        <v>19.30388388388435</v>
       </c>
       <c r="X2" t="n">
-        <v>18.80192192192234</v>
+        <v>18.36730730730775</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.44580580580626</v>
+        <v>20.24046046046094</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.34000000000021</v>
+        <v>22.96000000000015</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.638526839353176e-09</v>
+        <v>2.662348785875679e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>2.128374678146951e-08</v>
+        <v>1.05870014976972e-08</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>36.52033460028461</v>
+        <v>37.94941185895161</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[22.54488015608607, 50.495789044483146]</t>
+          <t>[23.540474589567218, 52.35834912833601]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8.004960514451653e-07</v>
+        <v>6.665208647227416e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>8.004960514451653e-07</v>
+        <v>6.665208647227416e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.679316257115619</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.094421592725082, -2.264210921506157]</t>
+          <t>[2.157289850212811, 2.937184723176043]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>61.69649872702855</v>
+        <v>64.58127988605682</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.01057817449286, 69.38241927956423]</t>
+          <t>[56.857446765815084, 72.30511300629855]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.952792792792883</v>
+        <v>13.65189189189198</v>
       </c>
       <c r="X3" t="n">
-        <v>8.410810810810885</v>
+        <v>12.22694694694703</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.49477477477488</v>
+        <v>15.07683683683693</v>
       </c>
     </row>
   </sheetData>
